--- a/results/comparaison/GM/depolarization/mean_raw_data.xlsx
+++ b/results/comparaison/GM/depolarization/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,267 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7906157383125478</v>
+        <v>0.7474839424097197</v>
       </c>
       <c r="C2">
-        <v>0.8370520497632128</v>
+        <v>0.8044523843873336</v>
       </c>
       <c r="D2">
-        <v>0.7461675982603682</v>
+        <v>0.8255525673470366</v>
       </c>
       <c r="E2">
-        <v>0.7699924283528669</v>
+        <v>0.8293579651805876</v>
       </c>
       <c r="F2">
-        <v>0.8005625435231317</v>
+        <v>0.7731519397815729</v>
+      </c>
+      <c r="G2">
+        <v>0.754740535552292</v>
+      </c>
+      <c r="H2">
+        <v>0.7854274951552733</v>
+      </c>
+      <c r="I2">
+        <v>0.7632017875056724</v>
+      </c>
+      <c r="J2">
+        <v>0.8144430557848017</v>
+      </c>
+      <c r="K2">
+        <v>0.7577561511776131</v>
+      </c>
+      <c r="L2">
+        <v>0.7762798824129533</v>
+      </c>
+      <c r="M2">
+        <v>0.7285757724532183</v>
+      </c>
+      <c r="N2">
+        <v>0.6856856316344876</v>
+      </c>
+      <c r="O2">
+        <v>0.7576893070173714</v>
+      </c>
+      <c r="P2">
+        <v>0.6909515386011421</v>
+      </c>
+      <c r="Q2">
+        <v>0.7495772121644115</v>
+      </c>
+      <c r="R2">
+        <v>0.6923420432481241</v>
+      </c>
+      <c r="S2">
+        <v>0.7894885068052657</v>
+      </c>
+      <c r="T2">
+        <v>0.7705662278397248</v>
+      </c>
+      <c r="U2">
+        <v>0.769837422133651</v>
+      </c>
+      <c r="V2">
+        <v>0.6546322765281587</v>
+      </c>
+      <c r="W2">
+        <v>0.6893786117846814</v>
+      </c>
+      <c r="X2">
+        <v>0.7515819406337859</v>
+      </c>
+      <c r="Y2">
+        <v>0.6908408484983132</v>
+      </c>
+      <c r="Z2">
+        <v>0.7524364405199711</v>
+      </c>
+      <c r="AA2">
+        <v>0.7403633537741947</v>
+      </c>
+      <c r="AB2">
+        <v>0.8043176773197379</v>
+      </c>
+      <c r="AC2">
+        <v>0.7619212472803994</v>
+      </c>
+      <c r="AD2">
+        <v>0.7344234036065952</v>
+      </c>
+      <c r="AE2">
+        <v>0.7327264925564194</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.7459807480518899</v>
-      </c>
       <c r="C3">
-        <v>0.8272189469247384</v>
+        <v>0.7405732094174191</v>
       </c>
       <c r="D3">
-        <v>0.7602530570019512</v>
+        <v>0.7943700653022006</v>
       </c>
       <c r="E3">
-        <v>0.754908714193489</v>
+        <v>0.7509923114492805</v>
       </c>
       <c r="F3">
-        <v>0.7844490525283546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.9089372607693712</v>
-      </c>
-      <c r="C4">
-        <v>0.8535219391379479</v>
-      </c>
-      <c r="D4">
-        <v>0.8103363985118345</v>
-      </c>
-      <c r="E4">
-        <v>0.8170839977975822</v>
-      </c>
-      <c r="F4">
-        <v>0.8458509207690872</v>
+        <v>0.856973094751095</v>
+      </c>
+      <c r="G3">
+        <v>0.7526004085162189</v>
+      </c>
+      <c r="H3">
+        <v>0.7628559895857153</v>
+      </c>
+      <c r="I3">
+        <v>0.737489265731601</v>
+      </c>
+      <c r="J3">
+        <v>0.7835232718472694</v>
+      </c>
+      <c r="K3">
+        <v>0.7460638491270448</v>
+      </c>
+      <c r="L3">
+        <v>0.7983308556391615</v>
+      </c>
+      <c r="M3">
+        <v>0.7468466634365102</v>
+      </c>
+      <c r="N3">
+        <v>0.7355974073411198</v>
+      </c>
+      <c r="O3">
+        <v>0.7245821871875093</v>
+      </c>
+      <c r="P3">
+        <v>0.7061203225705944</v>
+      </c>
+      <c r="Q3">
+        <v>0.7459328100440373</v>
+      </c>
+      <c r="R3">
+        <v>0.6798877493558337</v>
+      </c>
+      <c r="S3">
+        <v>0.7568396370972128</v>
+      </c>
+      <c r="T3">
+        <v>0.741241327789693</v>
+      </c>
+      <c r="U3">
+        <v>0.7551498249989066</v>
+      </c>
+      <c r="V3">
+        <v>0.7157378643683521</v>
+      </c>
+      <c r="W3">
+        <v>0.7230943219145949</v>
+      </c>
+      <c r="X3">
+        <v>0.8333798672303261</v>
+      </c>
+      <c r="Y3">
+        <v>0.7211397243598119</v>
+      </c>
+      <c r="Z3">
+        <v>0.793932711896273</v>
+      </c>
+      <c r="AA3">
+        <v>0.7340477413898442</v>
+      </c>
+      <c r="AB3">
+        <v>0.7837518421178914</v>
+      </c>
+      <c r="AC3">
+        <v>0.7544424571879225</v>
+      </c>
+      <c r="AD3">
+        <v>0.7554351719199139</v>
+      </c>
+      <c r="AE3">
+        <v>0.7376086465391013</v>
       </c>
     </row>
   </sheetData>
